--- a/Phase2/PF_FP_Excelvorlage_Ausgabenpositionen.xlsx
+++ b/Phase2/PF_FP_Excelvorlage_Ausgabenpositionen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E724BBE-900A-4F1E-9134-3D8C55D88B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76EBB4-AC05-48F6-B89E-2A1224B430AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,31 +109,31 @@
     <t>FUNDING_YEAR</t>
   </si>
   <si>
-    <t>2,PostDoc, 08.11.2024-17.11.2024;07.11.2025-16.11.2025, 10, 0,Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,Hochschullehrer/in, 06.11.2024-14.11.2024;05.11.2025-13.11.2025, 7, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 08.11.2024-16.11.2024;07.11.2025-15.11.2025, 8, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 21, 0, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Mobilitätspauschale Kat II.(1.450 EUR)</t>
-  </si>
-  <si>
-    <t>2,Hochschullehrer/in, 06.11.2024-14.11.2024;05.11.2025-13.11.2025, 8, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 08.11.2024-18.11.2024;07.11.2025-17.11.2025, 10, 0,Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 07.11.2024-16.11.2024;06.11.2025-15.11.2025, 9, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Sao Paulo 118 je Tag</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 21, 0, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien,  Sao Paulo 1 Monat (2.289 EUR)</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 21, 0, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Sao Paulo 1 Monat (2.289 EUR)</t>
+    <t>2,Hochschullehrer/in, 06.11.2024-13.11.2024;05.11.2025-12.11.2025, 8, 8, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 08.11.2024-17.11.2024;07.11.2025-16.11.2025, 10, 10, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Mobilitätspauschale Kat I.(1.775 EUR)</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 08.11.2024-16.11.2024;07.11.2025-15.11.2025, 9, 9, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
+  </si>
+  <si>
+    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Mobilitätspauschale Kat II.(1.450 EUR)</t>
+  </si>
+  <si>
+    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien,  Sao Paulo 1 Monat (2.289 EUR)</t>
+  </si>
+  <si>
+    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Sao Paulo 1 Monat (2.289 EUR)</t>
+  </si>
+  <si>
+    <t>2,Hochschullehrer/in, 06.11.2024-14.11.2024;05.11.2025-13.11.2025, 8, 8, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 08.11.2024-18.11.2024;07.11.2025-17.11.2025, 10, 10, 0, 0,Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 07.11.2024-16.11.2024;06.11.2025-15.11.2025, 9, 9, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Sao Paulo 118 je Tag</t>
   </si>
 </sst>
 </file>
@@ -171,9 +171,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -189,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,394 +506,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" style="3" customWidth="1"/>
-    <col min="5" max="10" width="13.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="2" customWidth="1"/>
+    <col min="5" max="10" width="13.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="4" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="19" max="16384" width="11.44140625" style="2"/>
+    <col min="19" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="5"/>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1775</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1775</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E4" s="3">
         <v>1775</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F4" s="3">
         <v>1775</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
         <v>1775</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F5" s="3">
         <v>1775</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1775</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1775</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1450</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1450</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1450</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1450</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>944</v>
+      </c>
+      <c r="F8" s="3">
+        <v>944</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1180</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1180</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1062</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1062</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4">
-        <v>944</v>
-      </c>
-      <c r="F8" s="4">
-        <v>944</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E11" s="3">
+        <v>2289</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2289</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4">
-        <v>1180</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1180</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1062</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1062</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="E12" s="3">
         <v>2289</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="3">
         <v>2289</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2289</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2289</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1030,11 +1030,11 @@
     <col min="1" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Phase2/PF_FP_Excelvorlage_Ausgabenpositionen.xlsx
+++ b/Phase2/PF_FP_Excelvorlage_Ausgabenpositionen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vorle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76EBB4-AC05-48F6-B89E-2A1224B430AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE561481-06B8-40EF-BCAF-BCBAA8F36DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Projektrelevanter Betrag</t>
   </si>
@@ -109,31 +109,25 @@
     <t>FUNDING_YEAR</t>
   </si>
   <si>
-    <t>2,Hochschullehrer/in, 06.11.2024-13.11.2024;05.11.2025-12.11.2025, 8, 8, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 08.11.2024-17.11.2024;07.11.2025-16.11.2025, 10, 10, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 08.11.2024-16.11.2024;07.11.2025-15.11.2025, 9, 9, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Mobilitätspauschale Kat II.(1.450 EUR)</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien,  Sao Paulo 1 Monat (2.289 EUR)</t>
-  </si>
-  <si>
-    <t>2,Doktorand, 07.11.2024-28.11.2024;06.11.2025-27.11.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Sao Paulo 1 Monat (2.289 EUR)</t>
-  </si>
-  <si>
-    <t>2,Hochschullehrer/in, 06.11.2024-14.11.2024;05.11.2025-13.11.2025, 8, 8, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 08.11.2024-18.11.2024;07.11.2025-17.11.2025, 10, 10, 0, 0,Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
-  </si>
-  <si>
-    <t>2,PostDoc, 07.11.2024-16.11.2024;06.11.2025-15.11.2025, 9, 9, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien,  Sao Paulo 118 je Tag</t>
+    <t>2,Doktorand, 06.11.2024-03.12.2024;05.11.2025-02.12.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Mobilitätspauschale Kat II.(1.450 EUR)</t>
+  </si>
+  <si>
+    <t>2,Doktorand, 06.11.2024-03.12.2024;05.11.2025-02.12.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien,  Sao Paulo 1 Monat (2.289 EUR)</t>
+  </si>
+  <si>
+    <t>2,Doktorand, 06.11.2024-03.12.2024;05.11.2025-02.12.2025, 0, 0, 1, 1, Presentation of results; work on manuscripts; exchange with students from Brazil, Deutschland, Brasilien, Sao Paulo 1 Monat (2.289 EUR)</t>
+  </si>
+  <si>
+    <t>2,Hochschullehrer/in, 06.11.2024-27.11.2024;05.11.2025-26.11.2025, 21, 21, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 06.11.2024-27.11.2024;05.11.2025-26.11.2025, 21, 21, 0, 0, Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Mobilitätspauschale Kat I.(1.775 EUR)</t>
+  </si>
+  <si>
+    <t>2,Hochschullehrer/in, 06.11.2024-27.11.2024;05.11.2025-26.11.2025, 21, 21, 0, 0, Review of progress; Discussion of further directions, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
+  </si>
+  <si>
+    <t>2,PostDoc, 06.11.2024-27.11.2024;05.11.2025-26.11.2025, 21, 21, 0, 0,Discussion of results; review of progress and adaptation of workflows; preparation of manuscripts and follow-up grant proposals, Deutschland, Brasilien, Sao Paulo 118 je Tag</t>
   </si>
 </sst>
 </file>
@@ -504,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>1775</v>
@@ -620,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3">
         <v>1775</v>
@@ -641,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -652,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>1775</v>
+        <v>1450</v>
       </c>
       <c r="F5" s="3">
-        <v>1775</v>
+        <v>1450</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -684,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>1450</v>
@@ -705,24 +699,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
-        <v>1450</v>
+        <v>2478</v>
       </c>
       <c r="F7" s="3">
-        <v>1450</v>
+        <v>2478</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -737,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,10 +745,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="3">
-        <v>944</v>
+        <v>2478</v>
       </c>
       <c r="F8" s="3">
-        <v>944</v>
+        <v>2478</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -769,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -780,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3">
-        <v>1180</v>
+        <v>2289</v>
       </c>
       <c r="F9" s="3">
-        <v>1180</v>
+        <v>2289</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -801,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -812,13 +806,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
-        <v>1062</v>
+        <v>2289</v>
       </c>
       <c r="F10" s="3">
-        <v>1062</v>
+        <v>2289</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -830,70 +824,6 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2289</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2289</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2289</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2289</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
         <v>0</v>
       </c>
     </row>
